--- a/backend/test.xlsx
+++ b/backend/test.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>官網</t>
   </si>
@@ -65,51 +65,20 @@
     <t>可測試</t>
   </si>
   <si>
-    <t>預告日期</t>
-  </si>
-  <si>
-    <t>測試日期
-(預計)</t>
-  </si>
-  <si>
-    <t>抄送日期
-(預計)</t>
-  </si>
-  <si>
-    <t>系統名稱</t>
-  </si>
-  <si>
-    <t>連繫單號
-文號/需求單</t>
-  </si>
-  <si>
-    <t>修改項目</t>
-  </si>
-  <si>
-    <t>負責測試</t>
-  </si>
-  <si>
-    <t>狀態</t>
-  </si>
-  <si>
-    <t>組別</t>
-  </si>
-  <si>
-    <t>程式作者</t>
-  </si>
-  <si>
-    <t>學習操作系統
-是否有手冊/文件</t>
-  </si>
-  <si>
-    <t>驗收單位-人
-內部驗收第幾點-人</t>
-  </si>
-  <si>
-    <t>建議事項 / 溫馨提醒</t>
-  </si>
-  <si>
-    <t>備註</t>
+    <t>startDate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>endDate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>project</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -553,54 +522,34 @@
   <dimension ref="A1:CL3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:90" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:90" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8"/>
+      <c r="F1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="M1" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>26</v>
-      </c>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="12"/>
       <c r="O1" s="13"/>
       <c r="P1" s="8"/>
       <c r="Q1" s="8"/>
